--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2155.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2155.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.4263528499135</v>
+        <v>0.8972892761230469</v>
       </c>
       <c r="B1">
-        <v>3.072886149611862</v>
+        <v>1.364560484886169</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.160371225001067</v>
+        <v>1.680899262428284</v>
       </c>
       <c r="E1">
-        <v>0.6664350355113479</v>
+        <v>1.097819924354553</v>
       </c>
     </row>
   </sheetData>
